--- a/biology/Botanique/Echo_Park_(Los_Angeles)/Echo_Park_(Los_Angeles).xlsx
+++ b/biology/Botanique/Echo_Park_(Los_Angeles)/Echo_Park_(Los_Angeles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Echo Park est à la fois le nom d'un quartier et d'un parc de la ville américaine de Los Angeles, en Californie. Il se situe dans le prolongement du quartier de Silver Lake. Sur Sunset Boulevard, on trouve quelques boutiques branchées (disquaire, restaurants et friperies vintage) faisant la renommée du quartier, résidentiel.
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé dans le centre-ville de Los Angeles. Comme son nom l'indique, la principale attraction du quartier est son grand parc urbain, où se regroupent de nombreux sans-logis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé dans le centre-ville de Los Angeles. Comme son nom l'indique, la principale attraction du quartier est son grand parc urbain, où se regroupent de nombreux sans-logis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Démographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les estimations du département d'urbanisme de Los Angeles de 2008, Echo Park compte 43 832 habitants, dont 64 % de Latinos, 18,8 % d'Asiatiques, 12,9 % de Blancs non hispaniques, 2 % de Noirs et 2,3 % de personnes appartenant à un autre groupe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les estimations du département d'urbanisme de Los Angeles de 2008, Echo Park compte 43 832 habitants, dont 64 % de Latinos, 18,8 % d'Asiatiques, 12,9 % de Blancs non hispaniques, 2 % de Noirs et 2,3 % de personnes appartenant à un autre groupe.
 </t>
         </is>
       </c>
